--- a/data/trans_dic/P25A$medico-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25A$medico-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1772676100610843</v>
+        <v>0.1746973867548923</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08550546624993073</v>
+        <v>0.08058187851800701</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09589803144143674</v>
+        <v>0.09108276106934739</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02189795551742731</v>
+        <v>0.02175167607343716</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01424510219650923</v>
+        <v>0.01392617437186025</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01782033336789651</v>
+        <v>0.01821057443428556</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1531046941565558</v>
+        <v>0.1451559490451064</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07310967277686826</v>
+        <v>0.07150821464410745</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07982729299099656</v>
+        <v>0.07865593355979074</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3172680275058255</v>
+        <v>0.3248363087308014</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1852564798865028</v>
+        <v>0.175916496591708</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2231047986121327</v>
+        <v>0.2202605725045861</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1910365324679257</v>
+        <v>0.1922795443485019</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1315312599302241</v>
+        <v>0.1232766233095485</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1490101557344034</v>
+        <v>0.1547632181290399</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2690786714805102</v>
+        <v>0.2660017136649174</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1480884911232543</v>
+        <v>0.1473640104506213</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.178730683079482</v>
+        <v>0.1746772058832024</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2122677573320209</v>
+        <v>0.2150184804276566</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1462268885946068</v>
+        <v>0.1418386956989902</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1109795568797627</v>
+        <v>0.1128584749055038</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0261657371886771</v>
+        <v>0.02736886923617369</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0645834549456048</v>
+        <v>0.06406923259562326</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01064339412087367</v>
+        <v>0.0126363743416567</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1631146023913004</v>
+        <v>0.1692132728796822</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1287921763248481</v>
+        <v>0.1307255000663644</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.08863777619953367</v>
+        <v>0.08712704664035607</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3413985025434375</v>
+        <v>0.3460129081290581</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2522516068406131</v>
+        <v>0.2532469782075176</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.229934374366114</v>
+        <v>0.2251843221897048</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.144791426191895</v>
+        <v>0.1669152968282732</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1923959167277965</v>
+        <v>0.1930906898858456</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1113740555638466</v>
+        <v>0.1038277807792306</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2706964631191484</v>
+        <v>0.2705546047727355</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2180151699665171</v>
+        <v>0.2196376854160819</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1714262548260595</v>
+        <v>0.1670819598374126</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1643037351859464</v>
+        <v>0.1576386485940184</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2028282047026223</v>
+        <v>0.2010859482971299</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2325818363653451</v>
+        <v>0.2336513447080726</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02951013931696728</v>
+        <v>0.03741591474512696</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09228566452593347</v>
+        <v>0.08963679864342226</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.137812893483374</v>
+        <v>0.1335236532971358</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1534290339748337</v>
+        <v>0.1503044739932004</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1979417575261336</v>
+        <v>0.2042176539463693</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3049787205766196</v>
+        <v>0.3084188327602444</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3491064395188382</v>
+        <v>0.3516964989549632</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4002448478103307</v>
+        <v>0.4017435080370036</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1823546119206076</v>
+        <v>0.1826677099924101</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1501327497389929</v>
+        <v>0.1467592702889748</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2731151787673127</v>
+        <v>0.272335716079264</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.253231192773939</v>
+        <v>0.2500138155729903</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2537778728972035</v>
+        <v>0.2563039737762299</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.324158673646162</v>
+        <v>0.3334286008168895</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2588157602909483</v>
+        <v>0.250556262360755</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1460538541152122</v>
+        <v>0.1512919155586429</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1103292810867572</v>
+        <v>0.1155164445039105</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06642101659849513</v>
+        <v>0.06763643045815609</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05261744557664654</v>
+        <v>0.04747884523201838</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04376042803805422</v>
+        <v>0.04489900961081068</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1996103278616835</v>
+        <v>0.20569203930045</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1232796606297592</v>
+        <v>0.1266989136392033</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09537687059975361</v>
+        <v>0.09254169841531</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3957645060159388</v>
+        <v>0.3925499889644621</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2601123423898115</v>
+        <v>0.2583053906579648</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2245951739201498</v>
+        <v>0.2231617373366638</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2029349753108126</v>
+        <v>0.2140938034816066</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1636823826117097</v>
+        <v>0.1661727672638121</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1554199577896991</v>
+        <v>0.1538933718100972</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3000263526615226</v>
+        <v>0.3113207528579699</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2138841900611894</v>
+        <v>0.2130793713199646</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1728487544581344</v>
+        <v>0.1680588192325378</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2378911544092303</v>
+        <v>0.2383141626000216</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1700787954289705</v>
+        <v>0.1690821537350692</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1582155950777892</v>
+        <v>0.162979913051466</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05598859083642578</v>
+        <v>0.05196309302890597</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06436110133810984</v>
+        <v>0.06089297614524579</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05947625936361996</v>
+        <v>0.06274948302073621</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1902942164948042</v>
+        <v>0.1893999692709256</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1421190670827721</v>
+        <v>0.1405724320074752</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1346623145714921</v>
+        <v>0.1342973433690434</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3063928020560311</v>
+        <v>0.3091056365479292</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2275131113615638</v>
+        <v>0.2298281305972841</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2240605516341286</v>
+        <v>0.2286424064488473</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1244049588907573</v>
+        <v>0.1252948806278933</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1247166640613382</v>
+        <v>0.1213098942398595</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1200474229790627</v>
+        <v>0.1256099926049707</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2453429966235182</v>
+        <v>0.2465853388569809</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1859513318472903</v>
+        <v>0.1863612369592128</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1807896401604084</v>
+        <v>0.1838751697613233</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>22944</v>
+        <v>22612</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16131</v>
+        <v>15202</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11336</v>
+        <v>10767</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1027</v>
+        <v>1004</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>959</v>
+        <v>980</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>26140</v>
+        <v>24783</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>19063</v>
+        <v>18645</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>13731</v>
+        <v>13530</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>41065</v>
+        <v>42045</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34949</v>
+        <v>33187</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26372</v>
+        <v>26036</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7890</v>
+        <v>7941</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9482</v>
+        <v>8887</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>8018</v>
+        <v>8327</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>45941</v>
+        <v>45415</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>38613</v>
+        <v>38424</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>30744</v>
+        <v>30047</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>39662</v>
+        <v>40176</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>36366</v>
+        <v>35275</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>19672</v>
+        <v>20005</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2013</v>
+        <v>2106</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>6350</v>
+        <v>6299</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>919</v>
+        <v>1091</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>43027</v>
+        <v>44636</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>44693</v>
+        <v>45364</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>23364</v>
+        <v>22966</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>63789</v>
+        <v>64651</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>62734</v>
+        <v>62982</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>40758</v>
+        <v>39916</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>11140</v>
+        <v>12842</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>18917</v>
+        <v>18985</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>9615</v>
+        <v>8964</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>71405</v>
+        <v>71368</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>75655</v>
+        <v>76218</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>45187</v>
+        <v>44042</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>22066</v>
+        <v>21171</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>34958</v>
+        <v>34658</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>31059</v>
+        <v>31202</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3045</v>
+        <v>3860</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6881</v>
+        <v>6683</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>23977</v>
+        <v>23231</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>42274</v>
+        <v>41413</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>41192</v>
+        <v>42498</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>40959</v>
+        <v>41421</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>60170</v>
+        <v>60616</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>53449</v>
+        <v>53649</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7236</v>
+        <v>7249</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>15489</v>
+        <v>15141</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>20364</v>
+        <v>20306</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>44058</v>
+        <v>43498</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>69922</v>
+        <v>70618</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>67458</v>
+        <v>69387</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>45030</v>
+        <v>43593</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>30141</v>
+        <v>31222</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>19472</v>
+        <v>20387</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6165</v>
+        <v>6278</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5945</v>
+        <v>5364</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5300</v>
+        <v>5438</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>53256</v>
+        <v>54879</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>39370</v>
+        <v>40462</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>28384</v>
+        <v>27540</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>68857</v>
+        <v>68298</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>53679</v>
+        <v>53306</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>39638</v>
+        <v>39385</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18836</v>
+        <v>19871</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18494</v>
+        <v>18775</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>18823</v>
+        <v>18638</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>80048</v>
+        <v>83061</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>68305</v>
+        <v>68048</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>51439</v>
+        <v>50014</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>148579</v>
+        <v>148843</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>138797</v>
+        <v>137983</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>95799</v>
+        <v>98684</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>14038</v>
+        <v>13029</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>24880</v>
+        <v>23539</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>19973</v>
+        <v>21072</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>166565</v>
+        <v>165782</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>170918</v>
+        <v>169057</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>126758</v>
+        <v>126415</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>191363</v>
+        <v>193057</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>185667</v>
+        <v>187557</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>135668</v>
+        <v>138442</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>31193</v>
+        <v>31416</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>48211</v>
+        <v>46894</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>40313</v>
+        <v>42181</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>214749</v>
+        <v>215837</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>223632</v>
+        <v>224125</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>170178</v>
+        <v>173082</v>
       </c>
     </row>
     <row r="24">
